--- a/cashflow_p&l_files/4. Heron Fields Profit & Loss.xlsx
+++ b/cashflow_p&l_files/4. Heron Fields Profit & Loss.xlsx
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="114" t="n">
-        <v>0</v>
+        <v>-20443.12</v>
       </c>
       <c r="I26" s="114" t="n">
         <v>0</v>

--- a/cashflow_p&l_files/4. Heron Fields Profit & Loss.xlsx
+++ b/cashflow_p&l_files/4. Heron Fields Profit & Loss.xlsx
@@ -24763,22 +24763,22 @@
         </is>
       </c>
       <c r="B8" s="112" t="n">
-        <v>4252624.12</v>
+        <v>0</v>
       </c>
       <c r="C8" s="112" t="n">
-        <v>4336497.82</v>
+        <v>0</v>
       </c>
       <c r="D8" s="112" t="n">
-        <v>4774233.25</v>
+        <v>0</v>
       </c>
       <c r="E8" s="112" t="n">
-        <v>3889214.05</v>
+        <v>0</v>
       </c>
       <c r="F8" s="112" t="n">
-        <v>4178067.3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="112" t="n">
-        <v>4418306.73</v>
+        <v>4967306.73</v>
       </c>
       <c r="H8" s="112" t="n">
         <v>2750089.29</v>
@@ -24881,7 +24881,7 @@
         </is>
       </c>
       <c r="B12" s="112" t="n">
-        <v>17292.48</v>
+        <v>0</v>
       </c>
       <c r="C12" s="112" t="n">
         <v>0</v>
@@ -24924,7 +24924,7 @@
         </is>
       </c>
       <c r="B13" s="114" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C13" s="114" t="n">
         <v>0</v>
@@ -24933,7 +24933,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="114" t="n">
-        <v>86.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="F13" s="114" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="114" t="n">
-        <v>86.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="F14" s="114" t="n">
         <v>0</v>
@@ -25010,7 +25010,7 @@
         </is>
       </c>
       <c r="B15" s="114" t="n">
-        <v>760.87</v>
+        <v>0</v>
       </c>
       <c r="C15" s="114" t="n">
         <v>0</v>
@@ -25053,19 +25053,19 @@
         </is>
       </c>
       <c r="B16" s="114" t="n">
-        <v>191661.47</v>
+        <v>0</v>
       </c>
       <c r="C16" s="114" t="n">
-        <v>1344.32</v>
+        <v>0</v>
       </c>
       <c r="D16" s="114" t="n">
-        <v>28166.51</v>
+        <v>0</v>
       </c>
       <c r="E16" s="114" t="n">
-        <v>16372.1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="114" t="n">
-        <v>12386.25</v>
+        <v>0</v>
       </c>
       <c r="G16" s="114" t="n">
         <v>5415.27</v>
@@ -25096,19 +25096,19 @@
         </is>
       </c>
       <c r="B17" s="114" t="n">
-        <v>24545.15</v>
+        <v>0</v>
       </c>
       <c r="C17" s="114" t="n">
-        <v>1250.39</v>
+        <v>0</v>
       </c>
       <c r="D17" s="114" t="n">
-        <v>2880.57</v>
+        <v>0</v>
       </c>
       <c r="E17" s="114" t="n">
-        <v>2570.42</v>
+        <v>0</v>
       </c>
       <c r="F17" s="114" t="n">
-        <v>115757.06</v>
+        <v>0</v>
       </c>
       <c r="G17" s="114" t="n">
         <v>1175.65</v>
@@ -25139,19 +25139,19 @@
         </is>
       </c>
       <c r="B18" s="136" t="n">
-        <v>1189.57</v>
+        <v>0</v>
       </c>
       <c r="C18" s="136" t="n">
-        <v>1189.57</v>
+        <v>0</v>
       </c>
       <c r="D18" s="136" t="n">
-        <v>1189.57</v>
+        <v>0</v>
       </c>
       <c r="E18" s="136" t="n">
-        <v>1440.87</v>
+        <v>0</v>
       </c>
       <c r="F18" s="136" t="n">
-        <v>1483.14</v>
+        <v>0</v>
       </c>
       <c r="G18" s="136" t="n">
         <v>1797.39</v>
@@ -25182,19 +25182,19 @@
         </is>
       </c>
       <c r="B19" s="136" t="n">
-        <v>776649.41</v>
+        <v>0</v>
       </c>
       <c r="C19" s="136" t="n">
-        <v>84649.57000000001</v>
+        <v>0</v>
       </c>
       <c r="D19" s="136" t="n">
-        <v>149683.77</v>
+        <v>0</v>
       </c>
       <c r="E19" s="136" t="n">
-        <v>328611.84</v>
+        <v>0</v>
       </c>
       <c r="F19" s="136" t="n">
-        <v>75191</v>
+        <v>0</v>
       </c>
       <c r="G19" s="136" t="n">
         <v>63191.31</v>
@@ -25228,7 +25228,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="136" t="n">
-        <v>694.78</v>
+        <v>0</v>
       </c>
       <c r="D20" s="136" t="n">
         <v>0</v>
@@ -25268,19 +25268,19 @@
         </is>
       </c>
       <c r="B21" s="136" t="n">
-        <v>59157.63</v>
+        <v>0</v>
       </c>
       <c r="C21" s="136" t="n">
-        <v>53004.4</v>
+        <v>0</v>
       </c>
       <c r="D21" s="136" t="n">
-        <v>50267.62</v>
+        <v>0</v>
       </c>
       <c r="E21" s="136" t="n">
-        <v>40224.74</v>
+        <v>0</v>
       </c>
       <c r="F21" s="136" t="n">
-        <v>79865.24000000001</v>
+        <v>0</v>
       </c>
       <c r="G21" s="136" t="n">
         <v>-2784.8</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="136" t="n">
-        <v>1129.57</v>
+        <v>0</v>
       </c>
       <c r="E22" s="136" t="n">
         <v>0</v>
@@ -25354,19 +25354,19 @@
         </is>
       </c>
       <c r="B23" s="114" t="n">
-        <v>2483055.52</v>
+        <v>8338713.56</v>
       </c>
       <c r="C23" s="114" t="n">
-        <v>3193925.31</v>
+        <v>9056635.59</v>
       </c>
       <c r="D23" s="114" t="n">
-        <v>3793437.38</v>
+        <v>5306635.59</v>
       </c>
       <c r="E23" s="114" t="n">
-        <v>2688761.77</v>
+        <v>5306635.59</v>
       </c>
       <c r="F23" s="114" t="n">
-        <v>3233584.29</v>
+        <v>3306635.59</v>
       </c>
       <c r="G23" s="114" t="n">
         <v>4150526.94</v>
@@ -25397,16 +25397,16 @@
         </is>
       </c>
       <c r="B24" s="114" t="n">
-        <v>263223.18</v>
+        <v>24793.88</v>
       </c>
       <c r="C24" s="114" t="n">
-        <v>111322.42</v>
+        <v>24793.88</v>
       </c>
       <c r="D24" s="114" t="n">
-        <v>61021.92</v>
+        <v>24793.88</v>
       </c>
       <c r="E24" s="114" t="n">
-        <v>28694.56</v>
+        <v>24793.88</v>
       </c>
       <c r="F24" s="114" t="n">
         <v>24793.88</v>
@@ -25440,16 +25440,16 @@
         </is>
       </c>
       <c r="B25" s="114" t="n">
-        <v>0</v>
+        <v>107.39</v>
       </c>
       <c r="C25" s="114" t="n">
-        <v>78.26000000000001</v>
+        <v>107.39</v>
       </c>
       <c r="D25" s="114" t="n">
-        <v>2170.45</v>
+        <v>107.39</v>
       </c>
       <c r="E25" s="114" t="n">
-        <v>8882.139999999999</v>
+        <v>107.39</v>
       </c>
       <c r="F25" s="114" t="n">
         <v>107.39</v>
@@ -25483,7 +25483,7 @@
         </is>
       </c>
       <c r="B26" s="114" t="n">
-        <v>2719.43</v>
+        <v>0</v>
       </c>
       <c r="C26" s="114" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="114" t="n">
-        <v>468.7</v>
+        <v>0</v>
       </c>
       <c r="G27" s="114" t="n">
         <v>0</v>
@@ -25581,7 +25581,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="114" t="n">
-        <v>25461.52</v>
+        <v>0</v>
       </c>
       <c r="G28" s="114" t="n">
         <v>0</v>
@@ -25621,10 +25621,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="114" t="n">
-        <v>30013.04</v>
+        <v>0</v>
       </c>
       <c r="F29" s="114" t="n">
-        <v>11607.87</v>
+        <v>0</v>
       </c>
       <c r="G29" s="114" t="n">
         <v>16000</v>
@@ -25658,16 +25658,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="114" t="n">
-        <v>486.95</v>
+        <v>0</v>
       </c>
       <c r="D30" s="114" t="n">
-        <v>20456.5</v>
+        <v>0</v>
       </c>
       <c r="E30" s="114" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F30" s="114" t="n">
-        <v>-19.48</v>
+        <v>0</v>
       </c>
       <c r="G30" s="114" t="n">
         <v>7197</v>
@@ -25829,19 +25829,19 @@
         </is>
       </c>
       <c r="B36" s="112" t="n">
-        <v>144.7</v>
+        <v>0</v>
       </c>
       <c r="C36" s="112" t="n">
-        <v>175.49</v>
+        <v>0</v>
       </c>
       <c r="D36" s="112" t="n">
-        <v>17.19</v>
+        <v>0</v>
       </c>
       <c r="E36" s="112" t="n">
-        <v>67.93000000000001</v>
+        <v>0</v>
       </c>
       <c r="F36" s="112" t="n">
-        <v>99.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="G36" s="112" t="n">
         <v>88.36</v>
@@ -25872,19 +25872,19 @@
         </is>
       </c>
       <c r="B37" s="114" t="n">
-        <v>6.81</v>
+        <v>0</v>
       </c>
       <c r="C37" s="114" t="n">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="D37" s="114" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="114" t="n">
-        <v>7.64</v>
+        <v>0</v>
       </c>
       <c r="F37" s="114" t="n">
-        <v>4.02</v>
+        <v>0</v>
       </c>
       <c r="G37" s="114" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="114" t="n">
-        <v>-3490.94</v>
+        <v>0</v>
       </c>
       <c r="E38" s="114" t="n">
         <v>0</v>
@@ -26042,7 +26042,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="144" t="n">
-        <v>11170</v>
+        <v>0</v>
       </c>
       <c r="F42" s="144" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="141" t="n">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="F43" s="141" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G43" s="141" t="n">
         <v>0</v>
@@ -26119,7 +26119,7 @@
         </is>
       </c>
       <c r="B44" s="141" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="C44" s="141" t="n">
         <v>0</v>
@@ -26162,7 +26162,7 @@
         </is>
       </c>
       <c r="B45" s="141" t="n">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="C45" s="141" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="141" t="n">
-        <v>885</v>
+        <v>0</v>
       </c>
       <c r="F45" s="141" t="n">
         <v>0</v>
@@ -26214,10 +26214,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="141" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F46" s="141" t="n">
-        <v>3450</v>
+        <v>0</v>
       </c>
       <c r="G46" s="141" t="n">
         <v>2300</v>
@@ -26248,19 +26248,19 @@
         </is>
       </c>
       <c r="B47" s="141" t="n">
-        <v>1931.46</v>
+        <v>0</v>
       </c>
       <c r="C47" s="141" t="n">
-        <v>1777.27</v>
+        <v>0</v>
       </c>
       <c r="D47" s="141" t="n">
-        <v>1869.9</v>
+        <v>0</v>
       </c>
       <c r="E47" s="141" t="n">
-        <v>1821.46</v>
+        <v>0</v>
       </c>
       <c r="F47" s="141" t="n">
-        <v>1918.65</v>
+        <v>0</v>
       </c>
       <c r="G47" s="141" t="n">
         <v>1574.96</v>
@@ -26291,13 +26291,13 @@
         </is>
       </c>
       <c r="B48" s="114" t="n">
-        <v>5034</v>
+        <v>0</v>
       </c>
       <c r="C48" s="114" t="n">
-        <v>7034</v>
+        <v>0</v>
       </c>
       <c r="D48" s="114" t="n">
-        <v>3007.35</v>
+        <v>0</v>
       </c>
       <c r="E48" s="114" t="n">
         <v>0</v>
@@ -26334,13 +26334,13 @@
         </is>
       </c>
       <c r="B49" s="114" t="n">
-        <v>1775.25</v>
+        <v>0</v>
       </c>
       <c r="C49" s="114" t="n">
-        <v>1775.25</v>
+        <v>0</v>
       </c>
       <c r="D49" s="114" t="n">
-        <v>1011.6</v>
+        <v>0</v>
       </c>
       <c r="E49" s="114" t="n">
         <v>0</v>
@@ -26377,19 +26377,19 @@
         </is>
       </c>
       <c r="B50" s="141" t="n">
-        <v>355.4</v>
+        <v>0</v>
       </c>
       <c r="C50" s="141" t="n">
         <v>0</v>
       </c>
       <c r="D50" s="141" t="n">
-        <v>78.25</v>
+        <v>0</v>
       </c>
       <c r="E50" s="141" t="n">
         <v>0</v>
       </c>
       <c r="F50" s="141" t="n">
-        <v>78.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="G50" s="141" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         </is>
       </c>
       <c r="B51" s="141" t="n">
-        <v>5177</v>
+        <v>0</v>
       </c>
       <c r="C51" s="141" t="n">
-        <v>2532</v>
+        <v>0</v>
       </c>
       <c r="D51" s="141" t="n">
-        <v>3130</v>
+        <v>0</v>
       </c>
       <c r="E51" s="141" t="n">
-        <v>4230</v>
+        <v>0</v>
       </c>
       <c r="F51" s="141" t="n">
-        <v>3130</v>
+        <v>0</v>
       </c>
       <c r="G51" s="141" t="n">
         <v>6080</v>
@@ -26463,19 +26463,19 @@
         </is>
       </c>
       <c r="B52" s="141" t="n">
-        <v>1604.52</v>
+        <v>0</v>
       </c>
       <c r="C52" s="141" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="141" t="n">
-        <v>1999.13</v>
+        <v>0</v>
       </c>
       <c r="E52" s="141" t="n">
         <v>0</v>
       </c>
       <c r="F52" s="141" t="n">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="G52" s="141" t="n">
         <v>0</v>
@@ -26506,19 +26506,19 @@
         </is>
       </c>
       <c r="B53" s="114" t="n">
-        <v>144016.7</v>
+        <v>0</v>
       </c>
       <c r="C53" s="114" t="n">
-        <v>110452</v>
+        <v>0</v>
       </c>
       <c r="D53" s="114" t="n">
-        <v>119527</v>
+        <v>0</v>
       </c>
       <c r="E53" s="114" t="n">
-        <v>119527</v>
+        <v>0</v>
       </c>
       <c r="F53" s="114" t="n">
-        <v>119527</v>
+        <v>0</v>
       </c>
       <c r="G53" s="114" t="n">
         <v>125697</v>
@@ -26555,7 +26555,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="141" t="n">
-        <v>86.09</v>
+        <v>0</v>
       </c>
       <c r="E54" s="141" t="n">
         <v>0</v>
@@ -26592,19 +26592,19 @@
         </is>
       </c>
       <c r="B55" s="114" t="n">
-        <v>3323.91</v>
+        <v>0</v>
       </c>
       <c r="C55" s="114" t="n">
-        <v>3323.88</v>
+        <v>0</v>
       </c>
       <c r="D55" s="114" t="n">
-        <v>3323.91</v>
+        <v>0</v>
       </c>
       <c r="E55" s="114" t="n">
-        <v>3323.88</v>
+        <v>0</v>
       </c>
       <c r="F55" s="114" t="n">
-        <v>3323.92</v>
+        <v>0</v>
       </c>
       <c r="G55" s="114" t="n">
         <v>3631.27</v>
@@ -26635,19 +26635,19 @@
         </is>
       </c>
       <c r="B56" s="114" t="n">
-        <v>547.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="C56" s="114" t="n">
-        <v>547.67</v>
+        <v>0</v>
       </c>
       <c r="D56" s="114" t="n">
-        <v>547.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="E56" s="114" t="n">
-        <v>547.67</v>
+        <v>0</v>
       </c>
       <c r="F56" s="114" t="n">
-        <v>547.6900000000001</v>
+        <v>0</v>
       </c>
       <c r="G56" s="114" t="n">
         <v>547.6799999999999</v>
@@ -26678,19 +26678,19 @@
         </is>
       </c>
       <c r="B57" s="114" t="n">
-        <v>193.33</v>
+        <v>0</v>
       </c>
       <c r="C57" s="114" t="n">
-        <v>193.34</v>
+        <v>0</v>
       </c>
       <c r="D57" s="114" t="n">
-        <v>1188.7</v>
+        <v>0</v>
       </c>
       <c r="E57" s="114" t="n">
-        <v>1188.69</v>
+        <v>0</v>
       </c>
       <c r="F57" s="114" t="n">
-        <v>1188.71</v>
+        <v>0</v>
       </c>
       <c r="G57" s="114" t="n">
         <v>1188.69</v>
@@ -26721,19 +26721,19 @@
         </is>
       </c>
       <c r="B58" s="114" t="n">
-        <v>7428.07</v>
+        <v>0</v>
       </c>
       <c r="C58" s="114" t="n">
-        <v>6676.08</v>
+        <v>0</v>
       </c>
       <c r="D58" s="114" t="n">
-        <v>5058.34</v>
+        <v>0</v>
       </c>
       <c r="E58" s="114" t="n">
-        <v>6082.97</v>
+        <v>0</v>
       </c>
       <c r="F58" s="114" t="n">
-        <v>7214.2</v>
+        <v>0</v>
       </c>
       <c r="G58" s="114" t="n">
         <v>7040.33</v>
@@ -26764,19 +26764,19 @@
         </is>
       </c>
       <c r="B59" s="141" t="n">
-        <v>1458.74</v>
+        <v>0</v>
       </c>
       <c r="C59" s="141" t="n">
-        <v>4275.67</v>
+        <v>0</v>
       </c>
       <c r="D59" s="141" t="n">
         <v>0</v>
       </c>
       <c r="E59" s="141" t="n">
-        <v>2089.86</v>
+        <v>0</v>
       </c>
       <c r="F59" s="141" t="n">
-        <v>2063.15</v>
+        <v>0</v>
       </c>
       <c r="G59" s="141" t="n">
         <v>4390.6</v>
@@ -26810,7 +26810,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="141" t="n">
-        <v>5202.88</v>
+        <v>0</v>
       </c>
       <c r="D60" s="141" t="n">
         <v>0</v>
@@ -26859,7 +26859,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="141" t="n">
-        <v>1069</v>
+        <v>0</v>
       </c>
       <c r="F61" s="141" t="n">
         <v>0</v>
@@ -26893,19 +26893,19 @@
         </is>
       </c>
       <c r="B62" s="141" t="n">
-        <v>5589.51</v>
+        <v>0</v>
       </c>
       <c r="C62" s="141" t="n">
-        <v>7124.28</v>
+        <v>0</v>
       </c>
       <c r="D62" s="141" t="n">
-        <v>4892.22</v>
+        <v>0</v>
       </c>
       <c r="E62" s="141" t="n">
-        <v>3175.51</v>
+        <v>0</v>
       </c>
       <c r="F62" s="141" t="n">
-        <v>4022.51</v>
+        <v>0</v>
       </c>
       <c r="G62" s="141" t="n">
         <v>5244.4</v>
@@ -26939,7 +26939,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="141" t="n">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="D63" s="141" t="n">
         <v>0</v>
@@ -26979,19 +26979,19 @@
         </is>
       </c>
       <c r="B64" s="114" t="n">
-        <v>75818.38</v>
+        <v>0</v>
       </c>
       <c r="C64" s="114" t="n">
-        <v>76990.11</v>
+        <v>0</v>
       </c>
       <c r="D64" s="114" t="n">
-        <v>77215.96000000001</v>
+        <v>0</v>
       </c>
       <c r="E64" s="114" t="n">
-        <v>82763.78</v>
+        <v>0</v>
       </c>
       <c r="F64" s="114" t="n">
-        <v>82564.37</v>
+        <v>0</v>
       </c>
       <c r="G64" s="114" t="n">
         <v>81838.63</v>
@@ -27022,19 +27022,19 @@
         </is>
       </c>
       <c r="B65" s="141" t="n">
-        <v>1375.3</v>
+        <v>0</v>
       </c>
       <c r="C65" s="141" t="n">
-        <v>1777.93</v>
+        <v>0</v>
       </c>
       <c r="D65" s="141" t="n">
-        <v>2190.96</v>
+        <v>0</v>
       </c>
       <c r="E65" s="141" t="n">
-        <v>704.96</v>
+        <v>0</v>
       </c>
       <c r="F65" s="141" t="n">
-        <v>1459.35</v>
+        <v>0</v>
       </c>
       <c r="G65" s="141" t="n">
         <v>2745.32</v>
@@ -27065,19 +27065,19 @@
         </is>
       </c>
       <c r="B66" s="141" t="n">
-        <v>2299.13</v>
+        <v>0</v>
       </c>
       <c r="C66" s="141" t="n">
-        <v>1173.91</v>
+        <v>0</v>
       </c>
       <c r="D66" s="141" t="n">
-        <v>2190.86</v>
+        <v>0</v>
       </c>
       <c r="E66" s="141" t="n">
-        <v>4327.12</v>
+        <v>0</v>
       </c>
       <c r="F66" s="141" t="n">
-        <v>5699.68</v>
+        <v>0</v>
       </c>
       <c r="G66" s="141" t="n">
         <v>7557.38</v>
@@ -27108,19 +27108,19 @@
         </is>
       </c>
       <c r="B67" s="114" t="n">
-        <v>843.6</v>
+        <v>0</v>
       </c>
       <c r="C67" s="114" t="n">
-        <v>843.6</v>
+        <v>0</v>
       </c>
       <c r="D67" s="114" t="n">
-        <v>843.6</v>
+        <v>0</v>
       </c>
       <c r="E67" s="114" t="n">
-        <v>843.6</v>
+        <v>0</v>
       </c>
       <c r="F67" s="114" t="n">
-        <v>843.6</v>
+        <v>0</v>
       </c>
       <c r="G67" s="114" t="n">
         <v>989.75</v>
@@ -27151,19 +27151,19 @@
         </is>
       </c>
       <c r="B68" s="114" t="n">
-        <v>29600</v>
+        <v>0</v>
       </c>
       <c r="C68" s="114" t="n">
-        <v>29600</v>
+        <v>0</v>
       </c>
       <c r="D68" s="114" t="n">
-        <v>29600</v>
+        <v>0</v>
       </c>
       <c r="E68" s="114" t="n">
-        <v>29600</v>
+        <v>0</v>
       </c>
       <c r="F68" s="114" t="n">
-        <v>29600</v>
+        <v>0</v>
       </c>
       <c r="G68" s="114" t="n">
         <v>29600</v>
@@ -27194,19 +27194,19 @@
         </is>
       </c>
       <c r="B69" s="141" t="n">
-        <v>6352.8</v>
+        <v>0</v>
       </c>
       <c r="C69" s="141" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="D69" s="141" t="n">
-        <v>2121.6</v>
+        <v>0</v>
       </c>
       <c r="E69" s="141" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="F69" s="141" t="n">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="G69" s="141" t="n">
         <v>0</v>
@@ -27243,7 +27243,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="114" t="n">
-        <v>5192.13</v>
+        <v>0</v>
       </c>
       <c r="E70" s="114" t="n">
         <v>0</v>
@@ -27280,19 +27280,19 @@
         </is>
       </c>
       <c r="B71" s="114" t="n">
-        <v>311179.66</v>
+        <v>0</v>
       </c>
       <c r="C71" s="114" t="n">
-        <v>327361.08</v>
+        <v>0</v>
       </c>
       <c r="D71" s="114" t="n">
-        <v>333418.54</v>
+        <v>0</v>
       </c>
       <c r="E71" s="114" t="n">
-        <v>373109.3</v>
+        <v>0</v>
       </c>
       <c r="F71" s="114" t="n">
-        <v>377867.45</v>
+        <v>0</v>
       </c>
       <c r="G71" s="114" t="n">
         <v>367762.35</v>
@@ -27323,19 +27323,19 @@
         </is>
       </c>
       <c r="B72" s="114" t="n">
-        <v>3744.13</v>
+        <v>0</v>
       </c>
       <c r="C72" s="114" t="n">
-        <v>3918.5</v>
+        <v>0</v>
       </c>
       <c r="D72" s="114" t="n">
-        <v>3980.49</v>
+        <v>0</v>
       </c>
       <c r="E72" s="114" t="n">
-        <v>4434.64</v>
+        <v>0</v>
       </c>
       <c r="F72" s="114" t="n">
-        <v>4480.77</v>
+        <v>0</v>
       </c>
       <c r="G72" s="114" t="n">
         <v>4371.35</v>
@@ -27378,7 +27378,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="141" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G73" s="141" t="n">
         <v>0</v>
@@ -27409,19 +27409,19 @@
         </is>
       </c>
       <c r="B74" s="141" t="n">
-        <v>177.33</v>
+        <v>0</v>
       </c>
       <c r="C74" s="141" t="n">
-        <v>177.33</v>
+        <v>0</v>
       </c>
       <c r="D74" s="141" t="n">
-        <v>177.33</v>
+        <v>0</v>
       </c>
       <c r="E74" s="141" t="n">
-        <v>177.33</v>
+        <v>0</v>
       </c>
       <c r="F74" s="141" t="n">
-        <v>177.33</v>
+        <v>0</v>
       </c>
       <c r="G74" s="141" t="n">
         <v>177.33</v>
@@ -27452,19 +27452,19 @@
         </is>
       </c>
       <c r="B75" s="141" t="n">
-        <v>833.91</v>
+        <v>0</v>
       </c>
       <c r="C75" s="141" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="D75" s="141" t="n">
-        <v>607.83</v>
+        <v>0</v>
       </c>
       <c r="E75" s="141" t="n">
-        <v>4172.17</v>
+        <v>0</v>
       </c>
       <c r="F75" s="141" t="n">
-        <v>2165.59</v>
+        <v>0</v>
       </c>
       <c r="G75" s="141" t="n">
         <v>3800</v>
@@ -27498,16 +27498,16 @@
         <v>0</v>
       </c>
       <c r="C76" s="141" t="n">
-        <v>244.98</v>
+        <v>0</v>
       </c>
       <c r="D76" s="141" t="n">
-        <v>2227.4</v>
+        <v>0</v>
       </c>
       <c r="E76" s="141" t="n">
-        <v>2814.73</v>
+        <v>0</v>
       </c>
       <c r="F76" s="141" t="n">
-        <v>4892.56</v>
+        <v>0</v>
       </c>
       <c r="G76" s="141" t="n">
         <v>3395.64</v>
@@ -27538,19 +27538,19 @@
         </is>
       </c>
       <c r="B77" s="141" t="n">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="C77" s="141" t="n">
-        <v>803.5</v>
+        <v>0</v>
       </c>
       <c r="D77" s="141" t="n">
-        <v>937.23</v>
+        <v>0</v>
       </c>
       <c r="E77" s="141" t="n">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="F77" s="141" t="n">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="G77" s="141" t="n">
         <v>846.99</v>
@@ -27581,7 +27581,7 @@
         </is>
       </c>
       <c r="B78" s="141" t="n">
-        <v>10825.49</v>
+        <v>0</v>
       </c>
       <c r="C78" s="141" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         </is>
       </c>
       <c r="B79" s="141" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="C79" s="141" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="D79" s="141" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="E79" s="141" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="F79" s="141" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="G79" s="141" t="n">
         <v>747</v>
@@ -27667,19 +27667,19 @@
         </is>
       </c>
       <c r="B80" s="141" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="C80" s="141" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D80" s="141" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E80" s="141" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F80" s="141" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G80" s="141" t="n">
         <v>600</v>
@@ -27719,10 +27719,10 @@
         <v>0</v>
       </c>
       <c r="E81" s="141" t="n">
-        <v>8349.65</v>
+        <v>0</v>
       </c>
       <c r="F81" s="141" t="n">
-        <v>2162.32</v>
+        <v>0</v>
       </c>
       <c r="G81" s="141" t="n">
         <v>0</v>
@@ -27753,19 +27753,19 @@
         </is>
       </c>
       <c r="B82" s="114" t="n">
-        <v>1920.62</v>
+        <v>0</v>
       </c>
       <c r="C82" s="114" t="n">
-        <v>2003.44</v>
+        <v>0</v>
       </c>
       <c r="D82" s="114" t="n">
-        <v>2059.18</v>
+        <v>0</v>
       </c>
       <c r="E82" s="114" t="n">
-        <v>2442.38</v>
+        <v>0</v>
       </c>
       <c r="F82" s="114" t="n">
-        <v>2495.21</v>
+        <v>0</v>
       </c>
       <c r="G82" s="114" t="n">
         <v>2385.07</v>
@@ -27796,19 +27796,19 @@
         </is>
       </c>
       <c r="B83" s="114" t="n">
-        <v>1920.62</v>
+        <v>0</v>
       </c>
       <c r="C83" s="114" t="n">
-        <v>2003.44</v>
+        <v>0</v>
       </c>
       <c r="D83" s="114" t="n">
-        <v>2059.18</v>
+        <v>0</v>
       </c>
       <c r="E83" s="114" t="n">
-        <v>2442.38</v>
+        <v>0</v>
       </c>
       <c r="F83" s="114" t="n">
-        <v>2495.21</v>
+        <v>0</v>
       </c>
       <c r="G83" s="114" t="n">
         <v>2385.07</v>
@@ -34365,19 +34365,19 @@
         <v/>
       </c>
       <c r="D8" s="42" t="n">
-        <v>9197652.18</v>
+        <v>1314591.31</v>
       </c>
       <c r="E8" s="42" t="n">
-        <v>10308000</v>
+        <v>1314591.31</v>
       </c>
       <c r="F8" s="42" t="n">
-        <v>4851826.09</v>
+        <v>1314591.31</v>
       </c>
       <c r="G8" s="42" t="n">
-        <v>1243391.3</v>
+        <v>1314591.31</v>
       </c>
       <c r="H8" s="42" t="n">
-        <v>1314691.31</v>
+        <v>1314591.31</v>
       </c>
       <c r="I8" s="42" t="n">
         <v>0</v>
@@ -34413,19 +34413,19 @@
         <v/>
       </c>
       <c r="D9" s="42" t="n">
-        <v>10864.06</v>
+        <v>0</v>
       </c>
       <c r="E9" s="42" t="n">
-        <v>18450</v>
+        <v>0</v>
       </c>
       <c r="F9" s="42" t="n">
-        <v>65332.85</v>
+        <v>0</v>
       </c>
       <c r="G9" s="42" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="42" t="n">
-        <v>7741.94</v>
+        <v>0</v>
       </c>
       <c r="I9" s="42" t="n">
         <v>0</v>
@@ -34655,19 +34655,19 @@
         <v/>
       </c>
       <c r="D15" s="42" t="n">
-        <v>465404.34</v>
+        <v>112945.52</v>
       </c>
       <c r="E15" s="42" t="n">
-        <v>448882.61</v>
+        <v>112945.52</v>
       </c>
       <c r="F15" s="42" t="n">
-        <v>242591.31</v>
+        <v>112945.52</v>
       </c>
       <c r="G15" s="42" t="n">
-        <v>62169.57</v>
+        <v>112945.52</v>
       </c>
       <c r="H15" s="42" t="n">
-        <v>61865.22</v>
+        <v>112945.52</v>
       </c>
       <c r="I15" s="42" t="n">
         <v>0</v>
@@ -34703,10 +34703,10 @@
         <v/>
       </c>
       <c r="D16" s="42" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E16" s="42" t="n">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="F16" s="42" t="n">
         <v>0</v>
@@ -34802,16 +34802,16 @@
         <v>0</v>
       </c>
       <c r="E18" s="42" t="n">
-        <v>11528.93</v>
+        <v>0</v>
       </c>
       <c r="F18" s="42" t="n">
-        <v>6631.99</v>
+        <v>0</v>
       </c>
       <c r="G18" s="42" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="42" t="n">
-        <v>3875.85</v>
+        <v>0</v>
       </c>
       <c r="I18" s="42" t="n">
         <v>0</v>
@@ -34904,7 +34904,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="42" t="n">
-        <v>31600</v>
+        <v>0</v>
       </c>
       <c r="H20" s="42" t="n">
         <v>0</v>
@@ -34955,7 +34955,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="42" t="n">
-        <v>45300.43</v>
+        <v>0</v>
       </c>
       <c r="I21" s="42" t="n">
         <v>0</v>
@@ -34997,7 +34997,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="42" t="n">
-        <v>171178.44</v>
+        <v>0</v>
       </c>
       <c r="G22" s="42" t="n">
         <v>0</v>
@@ -35039,16 +35039,16 @@
         <v/>
       </c>
       <c r="D23" s="42" t="n">
-        <v>193858.36</v>
+        <v>71053.34</v>
       </c>
       <c r="E23" s="42" t="n">
-        <v>230143.86</v>
+        <v>71053.34</v>
       </c>
       <c r="F23" s="42" t="n">
-        <v>135356.83</v>
+        <v>173655.62</v>
       </c>
       <c r="G23" s="42" t="n">
-        <v>18544.25</v>
+        <v>71053.34</v>
       </c>
       <c r="H23" s="42" t="n">
         <v>71053.34</v>
@@ -35246,19 +35246,19 @@
         <v/>
       </c>
       <c r="D29" s="42" t="n">
-        <v>224306.87</v>
+        <v>0</v>
       </c>
       <c r="E29" s="42" t="n">
-        <v>106209.22</v>
+        <v>0</v>
       </c>
       <c r="F29" s="42" t="n">
-        <v>222525.45</v>
+        <v>0</v>
       </c>
       <c r="G29" s="42" t="n">
-        <v>393902.07</v>
+        <v>0</v>
       </c>
       <c r="H29" s="42" t="n">
-        <v>259590.93</v>
+        <v>0</v>
       </c>
       <c r="I29" s="42" t="n">
         <v>291385.94</v>
@@ -35306,7 +35306,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="42" t="n">
-        <v>37500</v>
+        <v>0</v>
       </c>
       <c r="I30" s="42" t="n">
         <v>14500</v>
@@ -35436,7 +35436,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="42" t="n">
-        <v>19504.96</v>
+        <v>0</v>
       </c>
       <c r="I34" s="42" t="n">
         <v>0</v>
@@ -35472,19 +35472,19 @@
         <v/>
       </c>
       <c r="D35" s="42" t="n">
-        <v>22554.76</v>
+        <v>0</v>
       </c>
       <c r="E35" s="42" t="n">
-        <v>23300</v>
+        <v>0</v>
       </c>
       <c r="F35" s="42" t="n">
-        <v>52232.03</v>
+        <v>0</v>
       </c>
       <c r="G35" s="42" t="n">
-        <v>39589.13</v>
+        <v>0</v>
       </c>
       <c r="H35" s="42" t="n">
-        <v>26226.57</v>
+        <v>0</v>
       </c>
       <c r="I35" s="42" t="n">
         <v>500</v>
@@ -35523,10 +35523,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="42" t="n">
-        <v>24960</v>
+        <v>0</v>
       </c>
       <c r="F36" s="42" t="n">
-        <v>-12480</v>
+        <v>0</v>
       </c>
       <c r="G36" s="42" t="n">
         <v>0</v>
@@ -35616,19 +35616,19 @@
         <v/>
       </c>
       <c r="D38" s="42" t="n">
-        <v>582.98</v>
+        <v>0</v>
       </c>
       <c r="E38" s="42" t="n">
-        <v>374.2</v>
+        <v>0</v>
       </c>
       <c r="F38" s="42" t="n">
-        <v>449.38</v>
+        <v>0</v>
       </c>
       <c r="G38" s="42" t="n">
-        <v>516.95</v>
+        <v>0</v>
       </c>
       <c r="H38" s="42" t="n">
-        <v>644.17</v>
+        <v>0</v>
       </c>
       <c r="I38" s="42" t="n">
         <v>256.55</v>
@@ -35664,19 +35664,19 @@
         <v/>
       </c>
       <c r="D39" s="42" t="n">
-        <v>109218.57</v>
+        <v>0</v>
       </c>
       <c r="E39" s="42" t="n">
-        <v>98308</v>
+        <v>0</v>
       </c>
       <c r="F39" s="42" t="n">
-        <v>121658</v>
+        <v>0</v>
       </c>
       <c r="G39" s="42" t="n">
-        <v>121658</v>
+        <v>0</v>
       </c>
       <c r="H39" s="42" t="n">
-        <v>121658</v>
+        <v>0</v>
       </c>
       <c r="I39" s="42" t="n">
         <v>128833</v>
@@ -35715,13 +35715,13 @@
         <v>0</v>
       </c>
       <c r="E40" s="42" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F40" s="42" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G40" s="42" t="n">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="H40" s="42" t="n">
         <v>0</v>
@@ -35760,13 +35760,13 @@
         <v/>
       </c>
       <c r="D41" s="42" t="n">
-        <v>11216.13</v>
+        <v>0</v>
       </c>
       <c r="E41" s="42" t="n">
-        <v>-2477.51</v>
+        <v>0</v>
       </c>
       <c r="F41" s="42" t="n">
-        <v>2524.84</v>
+        <v>0</v>
       </c>
       <c r="G41" s="42" t="n">
         <v>0</v>
@@ -35811,16 +35811,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="42" t="n">
-        <v>7350.33</v>
+        <v>0</v>
       </c>
       <c r="F42" s="42" t="n">
-        <v>8823.9</v>
+        <v>0</v>
       </c>
       <c r="G42" s="42" t="n">
-        <v>10741.66</v>
+        <v>0</v>
       </c>
       <c r="H42" s="42" t="n">
-        <v>10459.97</v>
+        <v>0</v>
       </c>
       <c r="I42" s="42" t="n">
         <v>13224.43</v>
@@ -35856,10 +35856,10 @@
         <v/>
       </c>
       <c r="D43" s="42" t="n">
-        <v>181.67</v>
+        <v>0</v>
       </c>
       <c r="E43" s="42" t="n">
-        <v>-715.47</v>
+        <v>0</v>
       </c>
       <c r="F43" s="42" t="n">
         <v>0</v>
@@ -35904,19 +35904,19 @@
         <v/>
       </c>
       <c r="D44" s="139" t="n">
-        <v>40376.71</v>
+        <v>-246794.53</v>
       </c>
       <c r="E44" s="139" t="n">
-        <v>0</v>
+        <v>-246794.53</v>
       </c>
       <c r="F44" s="139" t="n">
-        <v>229887.83</v>
+        <v>-246794.53</v>
       </c>
       <c r="G44" s="139" t="n">
-        <v>130102.66</v>
+        <v>-246794.53</v>
       </c>
       <c r="H44" s="139" t="n">
-        <v>0</v>
+        <v>-246794.53</v>
       </c>
       <c r="I44" s="139" t="n">
         <v>0</v>
@@ -35952,16 +35952,16 @@
         <v/>
       </c>
       <c r="D45" s="139" t="n">
-        <v>133335.61</v>
+        <v>26630.13</v>
       </c>
       <c r="E45" s="139" t="n">
-        <v>55479.45</v>
+        <v>26630.13</v>
       </c>
       <c r="F45" s="139" t="n">
-        <v>117904.12</v>
+        <v>26630.13</v>
       </c>
       <c r="G45" s="139" t="n">
-        <v>0</v>
+        <v>26630.13</v>
       </c>
       <c r="H45" s="139" t="n">
         <v>26630.13</v>
@@ -36003,13 +36003,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="139" t="n">
-        <v>14451.92</v>
+        <v>0</v>
       </c>
       <c r="F46" s="139" t="n">
-        <v>33052.06</v>
+        <v>0</v>
       </c>
       <c r="G46" s="139" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="H46" s="139" t="n">
         <v>0</v>
@@ -36048,16 +36048,16 @@
         <v/>
       </c>
       <c r="D47" s="139" t="n">
-        <v>1115603.3</v>
+        <v>411780.83</v>
       </c>
       <c r="E47" s="139" t="n">
-        <v>1454819.17</v>
+        <v>411780.83</v>
       </c>
       <c r="F47" s="139" t="n">
-        <v>214964.38</v>
+        <v>411780.83</v>
       </c>
       <c r="G47" s="139" t="n">
-        <v>0</v>
+        <v>411780.83</v>
       </c>
       <c r="H47" s="139" t="n">
         <v>411780.83</v>
@@ -36096,16 +36096,16 @@
         <v/>
       </c>
       <c r="D48" s="139" t="n">
-        <v>63203.46</v>
+        <v>15410.95</v>
       </c>
       <c r="E48" s="139" t="n">
-        <v>62219.17</v>
+        <v>15410.95</v>
       </c>
       <c r="F48" s="139" t="n">
-        <v>22371.58</v>
+        <v>15410.95</v>
       </c>
       <c r="G48" s="139" t="n">
-        <v>4041.1</v>
+        <v>15410.95</v>
       </c>
       <c r="H48" s="139" t="n">
         <v>15410.95</v>
@@ -36144,16 +36144,16 @@
         <v/>
       </c>
       <c r="D49" s="139" t="n">
-        <v>3561.64</v>
+        <v>11041.1</v>
       </c>
       <c r="E49" s="139" t="n">
-        <v>37361.65</v>
+        <v>11041.1</v>
       </c>
       <c r="F49" s="139" t="n">
-        <v>15457.54</v>
+        <v>11041.1</v>
       </c>
       <c r="G49" s="139" t="n">
-        <v>5520.55</v>
+        <v>11041.1</v>
       </c>
       <c r="H49" s="139" t="n">
         <v>11041.1</v>
@@ -36192,16 +36192,16 @@
         <v/>
       </c>
       <c r="D50" s="139" t="n">
-        <v>0</v>
+        <v>4808.22</v>
       </c>
       <c r="E50" s="139" t="n">
-        <v>22913.02</v>
+        <v>4808.22</v>
       </c>
       <c r="F50" s="139" t="n">
-        <v>13389.04</v>
+        <v>4808.22</v>
       </c>
       <c r="G50" s="139" t="n">
-        <v>3014.39</v>
+        <v>4808.22</v>
       </c>
       <c r="H50" s="139" t="n">
         <v>4808.22</v>
@@ -36243,13 +36243,13 @@
         <v>0</v>
       </c>
       <c r="E51" s="139" t="n">
-        <v>11027.39</v>
+        <v>0</v>
       </c>
       <c r="F51" s="139" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="139" t="n">
-        <v>650.9400000000001</v>
+        <v>0</v>
       </c>
       <c r="H51" s="139" t="n">
         <v>0</v>
@@ -36336,16 +36336,16 @@
         <v/>
       </c>
       <c r="D53" s="139" t="n">
-        <v>0</v>
+        <v>821.92</v>
       </c>
       <c r="E53" s="139" t="n">
-        <v>0</v>
+        <v>821.92</v>
       </c>
       <c r="F53" s="139" t="n">
-        <v>0</v>
+        <v>821.92</v>
       </c>
       <c r="G53" s="139" t="n">
-        <v>430.32</v>
+        <v>821.92</v>
       </c>
       <c r="H53" s="139" t="n">
         <v>821.92</v>
@@ -36384,16 +36384,16 @@
         <v/>
       </c>
       <c r="D54" s="139" t="n">
-        <v>0</v>
+        <v>5515.07</v>
       </c>
       <c r="E54" s="139" t="n">
-        <v>0</v>
+        <v>5515.07</v>
       </c>
       <c r="F54" s="139" t="n">
-        <v>0</v>
+        <v>5515.07</v>
       </c>
       <c r="G54" s="139" t="n">
-        <v>0</v>
+        <v>5515.07</v>
       </c>
       <c r="H54" s="139" t="n">
         <v>5515.07</v>
@@ -36432,16 +36432,16 @@
         <v/>
       </c>
       <c r="D55" s="139" t="n">
-        <v>0</v>
+        <v>591.78</v>
       </c>
       <c r="E55" s="139" t="n">
-        <v>0</v>
+        <v>591.78</v>
       </c>
       <c r="F55" s="139" t="n">
-        <v>0</v>
+        <v>591.78</v>
       </c>
       <c r="G55" s="139" t="n">
-        <v>0</v>
+        <v>591.78</v>
       </c>
       <c r="H55" s="139" t="n">
         <v>591.78</v>
@@ -36480,19 +36480,19 @@
         <v/>
       </c>
       <c r="D56" s="42" t="n">
-        <v>5169.95</v>
+        <v>0</v>
       </c>
       <c r="E56" s="42" t="n">
-        <v>8404.200000000001</v>
+        <v>0</v>
       </c>
       <c r="F56" s="42" t="n">
-        <v>5264.82</v>
+        <v>0</v>
       </c>
       <c r="G56" s="42" t="n">
-        <v>10523.82</v>
+        <v>0</v>
       </c>
       <c r="H56" s="42" t="n">
-        <v>15190</v>
+        <v>0</v>
       </c>
       <c r="I56" s="42" t="n">
         <v>15149.62</v>
@@ -36576,13 +36576,13 @@
         <v/>
       </c>
       <c r="D58" s="42" t="n">
-        <v>30819.25</v>
+        <v>0</v>
       </c>
       <c r="E58" s="42" t="n">
-        <v>-42216.76</v>
+        <v>0</v>
       </c>
       <c r="F58" s="42" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="G58" s="42" t="n">
         <v>0</v>
@@ -36624,7 +36624,7 @@
         <v/>
       </c>
       <c r="D59" s="42" t="n">
-        <v>10690.2</v>
+        <v>0</v>
       </c>
       <c r="E59" s="42" t="n">
         <v>0</v>
@@ -36681,10 +36681,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="42" t="n">
-        <v>71583.14999999999</v>
+        <v>0</v>
       </c>
       <c r="H60" s="42" t="n">
-        <v>5282.68</v>
+        <v>0</v>
       </c>
       <c r="I60" s="42" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="42" t="n">
-        <v>33687.28</v>
+        <v>0</v>
       </c>
       <c r="I61" s="42" t="n">
         <v>0</v>
@@ -36768,19 +36768,19 @@
         <v/>
       </c>
       <c r="D62" s="42" t="n">
-        <v>328.38</v>
+        <v>0</v>
       </c>
       <c r="E62" s="42" t="n">
-        <v>328.38</v>
+        <v>0</v>
       </c>
       <c r="F62" s="42" t="n">
-        <v>328.38</v>
+        <v>0</v>
       </c>
       <c r="G62" s="42" t="n">
-        <v>366.14</v>
+        <v>0</v>
       </c>
       <c r="H62" s="42" t="n">
-        <v>366.14</v>
+        <v>0</v>
       </c>
       <c r="I62" s="42" t="n">
         <v>366.14</v>
@@ -36816,13 +36816,13 @@
         <v/>
       </c>
       <c r="D63" s="42" t="n">
-        <v>199.99</v>
+        <v>0</v>
       </c>
       <c r="E63" s="42" t="n">
         <v>0</v>
       </c>
       <c r="F63" s="42" t="n">
-        <v>39.47</v>
+        <v>0</v>
       </c>
       <c r="G63" s="42" t="n">
         <v>0</v>
@@ -36912,19 +36912,19 @@
         <v/>
       </c>
       <c r="D65" s="42" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E65" s="42" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F65" s="42" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G65" s="42" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H65" s="42" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I65" s="42" t="n">
         <v>600</v>
@@ -36960,13 +36960,13 @@
         <v/>
       </c>
       <c r="D66" s="42" t="n">
-        <v>39349.03</v>
+        <v>0</v>
       </c>
       <c r="E66" s="42" t="n">
-        <v>-4301.84</v>
+        <v>0</v>
       </c>
       <c r="F66" s="42" t="n">
-        <v>8832.24</v>
+        <v>0</v>
       </c>
       <c r="G66" s="42" t="n">
         <v>0</v>
